--- a/data/pca/factorExposure/factorExposure_2010-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-14.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01329470730582649</v>
+        <v>-0.01665951927694317</v>
       </c>
       <c r="C2">
-        <v>0.0044583836331095</v>
+        <v>0.0008489641403076812</v>
       </c>
       <c r="D2">
-        <v>-0.01148960170138912</v>
+        <v>0.00854879446582377</v>
       </c>
       <c r="E2">
-        <v>0.01366131935156189</v>
+        <v>0.002619152006226087</v>
       </c>
       <c r="F2">
-        <v>0.03139269903003356</v>
+        <v>-0.01352822578625015</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1229831581413162</v>
+        <v>-0.09573965845508052</v>
       </c>
       <c r="C4">
-        <v>0.1057287482596309</v>
+        <v>0.01760332251378513</v>
       </c>
       <c r="D4">
-        <v>0.007168976237049165</v>
+        <v>0.08143902021067462</v>
       </c>
       <c r="E4">
-        <v>-0.1517643717223833</v>
+        <v>-0.02643655738892936</v>
       </c>
       <c r="F4">
-        <v>0.07733397852678223</v>
+        <v>0.03983628307768756</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1291170776621023</v>
+        <v>-0.1520548584620794</v>
       </c>
       <c r="C6">
-        <v>0.05849963825773401</v>
+        <v>0.0244002344259224</v>
       </c>
       <c r="D6">
-        <v>0.008127230160196522</v>
+        <v>-0.02275580901818451</v>
       </c>
       <c r="E6">
-        <v>-0.04026940231132121</v>
+        <v>-0.01510921849775571</v>
       </c>
       <c r="F6">
-        <v>-0.02259651020664618</v>
+        <v>0.03902824013645043</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0707590581865382</v>
+        <v>-0.06186096482535904</v>
       </c>
       <c r="C7">
-        <v>0.07857337840672025</v>
+        <v>0.0001155372709713726</v>
       </c>
       <c r="D7">
-        <v>-0.0125490074196294</v>
+        <v>0.05135791029347489</v>
       </c>
       <c r="E7">
-        <v>-0.01035024400230719</v>
+        <v>-0.01296341495677024</v>
       </c>
       <c r="F7">
-        <v>0.004545929411639558</v>
+        <v>0.05825600491433772</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04721251944795315</v>
+        <v>-0.05980804912335665</v>
       </c>
       <c r="C8">
-        <v>0.007889757734399956</v>
+        <v>-0.01264292827592152</v>
       </c>
       <c r="D8">
-        <v>-0.004004139846783277</v>
+        <v>0.02770665876439401</v>
       </c>
       <c r="E8">
-        <v>-0.09788694752769594</v>
+        <v>-0.01210846739982289</v>
       </c>
       <c r="F8">
-        <v>0.05817853582741254</v>
+        <v>-0.02155770662618512</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08846791442717153</v>
+        <v>-0.07284494116996658</v>
       </c>
       <c r="C9">
-        <v>0.08309025232623361</v>
+        <v>0.01381738821192401</v>
       </c>
       <c r="D9">
-        <v>0.02379145727435027</v>
+        <v>0.0806578889294904</v>
       </c>
       <c r="E9">
-        <v>-0.1305159802865956</v>
+        <v>-0.02086231607017435</v>
       </c>
       <c r="F9">
-        <v>0.06587680911407813</v>
+        <v>0.06171778908192987</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1331712293013628</v>
+        <v>-0.09217671460085021</v>
       </c>
       <c r="C10">
-        <v>-0.1703992263231842</v>
+        <v>0.01460106179231111</v>
       </c>
       <c r="D10">
-        <v>-0.008827551408666479</v>
+        <v>-0.1733310872917477</v>
       </c>
       <c r="E10">
-        <v>0.04202256994258582</v>
+        <v>0.03493762308632707</v>
       </c>
       <c r="F10">
-        <v>-0.008367932032140799</v>
+        <v>-0.05085994030335292</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06701020321750045</v>
+        <v>-0.08859017906056248</v>
       </c>
       <c r="C11">
-        <v>0.06485602921449497</v>
+        <v>0.01302594451345328</v>
       </c>
       <c r="D11">
-        <v>0.04306412107716487</v>
+        <v>0.1106833683287674</v>
       </c>
       <c r="E11">
-        <v>-0.09607331481137814</v>
+        <v>-0.04155767155512905</v>
       </c>
       <c r="F11">
-        <v>0.06196536415640375</v>
+        <v>0.0281480468522667</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06711207950297442</v>
+        <v>-0.09335148698471672</v>
       </c>
       <c r="C12">
-        <v>0.069229711191985</v>
+        <v>0.01092971367517462</v>
       </c>
       <c r="D12">
-        <v>0.05254167137052641</v>
+        <v>0.1176755294040338</v>
       </c>
       <c r="E12">
-        <v>-0.1100228176601096</v>
+        <v>-0.03924416229917455</v>
       </c>
       <c r="F12">
-        <v>0.02107438749036218</v>
+        <v>0.03014436127485789</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03868698468396863</v>
+        <v>-0.04393013362211083</v>
       </c>
       <c r="C13">
-        <v>0.03846867258436179</v>
+        <v>0.004695573034730221</v>
       </c>
       <c r="D13">
-        <v>-0.02129275466342102</v>
+        <v>0.04314792892796122</v>
       </c>
       <c r="E13">
-        <v>-0.03320026155311136</v>
+        <v>0.01552757903797797</v>
       </c>
       <c r="F13">
-        <v>0.01398854461259319</v>
+        <v>0.02035020536413239</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0346677010602693</v>
+        <v>-0.02187162805236118</v>
       </c>
       <c r="C14">
-        <v>0.03494516916662954</v>
+        <v>0.01480831445561013</v>
       </c>
       <c r="D14">
-        <v>0.01709346097618517</v>
+        <v>0.03131405911980695</v>
       </c>
       <c r="E14">
-        <v>-0.0547619412786552</v>
+        <v>-0.01539854370964543</v>
       </c>
       <c r="F14">
-        <v>0.01403142106976917</v>
+        <v>0.02655336455225532</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01964859523743736</v>
+        <v>-0.03254605780381731</v>
       </c>
       <c r="C15">
-        <v>0.01532748956687822</v>
+        <v>0.005858155960985491</v>
       </c>
       <c r="D15">
-        <v>-0.06881817729498012</v>
+        <v>0.04285586698030797</v>
       </c>
       <c r="E15">
-        <v>-0.00488469668298639</v>
+        <v>-0.007175021648578308</v>
       </c>
       <c r="F15">
-        <v>0.03306344122632212</v>
+        <v>0.03416263283039575</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07628835068231929</v>
+        <v>-0.07544625617545553</v>
       </c>
       <c r="C16">
-        <v>0.07787317749683868</v>
+        <v>0.004822030871828519</v>
       </c>
       <c r="D16">
-        <v>0.0392277411776432</v>
+        <v>0.1149033431447918</v>
       </c>
       <c r="E16">
-        <v>-0.09703886088297546</v>
+        <v>-0.05657262427152349</v>
       </c>
       <c r="F16">
-        <v>0.02890959793745495</v>
+        <v>0.03641356537052683</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02007899427229234</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003993401050177181</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.022453634678755</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01136297672422463</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02835559975359075</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0466355968095378</v>
+        <v>-0.0616155582120208</v>
       </c>
       <c r="C20">
-        <v>0.02535369064331839</v>
+        <v>0.002457786624775961</v>
       </c>
       <c r="D20">
-        <v>-0.03237934841362575</v>
+        <v>0.07029963802021093</v>
       </c>
       <c r="E20">
-        <v>-0.07623099325856474</v>
+        <v>-0.05088060925382835</v>
       </c>
       <c r="F20">
-        <v>0.01009946014050562</v>
+        <v>0.03149689129627681</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02574341955322804</v>
+        <v>-0.03864173630804758</v>
       </c>
       <c r="C21">
-        <v>0.02243022217192908</v>
+        <v>0.007837436385303126</v>
       </c>
       <c r="D21">
-        <v>0.01747378790048104</v>
+        <v>0.033520630425546</v>
       </c>
       <c r="E21">
-        <v>-0.05000032387956225</v>
+        <v>0.01314387921214675</v>
       </c>
       <c r="F21">
-        <v>0.05582428923562585</v>
+        <v>-0.01783012340497417</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05551725145056641</v>
+        <v>-0.04221679098502704</v>
       </c>
       <c r="C22">
-        <v>0.01772724661407189</v>
+        <v>0.0007032840857132484</v>
       </c>
       <c r="D22">
-        <v>-0.6470571714305166</v>
+        <v>0.001726036230044123</v>
       </c>
       <c r="E22">
-        <v>-0.0478544721466725</v>
+        <v>-0.03277715586095249</v>
       </c>
       <c r="F22">
-        <v>-0.1184262591467009</v>
+        <v>-0.02328736010718877</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05642880051980507</v>
+        <v>-0.04230997758345945</v>
       </c>
       <c r="C23">
-        <v>0.01957279219147526</v>
+        <v>0.0007371130822796934</v>
       </c>
       <c r="D23">
-        <v>-0.6493233699378251</v>
+        <v>0.00193580000220845</v>
       </c>
       <c r="E23">
-        <v>-0.0527334377272547</v>
+        <v>-0.03319595330246276</v>
       </c>
       <c r="F23">
-        <v>-0.1168068975947279</v>
+        <v>-0.02273718230913123</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07576451894249951</v>
+        <v>-0.08186499565007203</v>
       </c>
       <c r="C24">
-        <v>0.07914457151497244</v>
+        <v>0.005013223277391761</v>
       </c>
       <c r="D24">
-        <v>0.03142573132112649</v>
+        <v>0.114585210907352</v>
       </c>
       <c r="E24">
-        <v>-0.09668047507241309</v>
+        <v>-0.04479957946231163</v>
       </c>
       <c r="F24">
-        <v>0.04201079635932231</v>
+        <v>0.02874275032694825</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07451648148442903</v>
+        <v>-0.08593787339157133</v>
       </c>
       <c r="C25">
-        <v>0.05873340493821118</v>
+        <v>0.006935564681380863</v>
       </c>
       <c r="D25">
-        <v>0.05751598381230268</v>
+        <v>0.1013919816409823</v>
       </c>
       <c r="E25">
-        <v>-0.09882419911746301</v>
+        <v>-0.02711936227410817</v>
       </c>
       <c r="F25">
-        <v>0.04290055584634372</v>
+        <v>0.03792669330503386</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04231926882326551</v>
+        <v>-0.05645089028883012</v>
       </c>
       <c r="C26">
-        <v>0.01010321291384773</v>
+        <v>0.01563197040166685</v>
       </c>
       <c r="D26">
-        <v>-0.0144662061651991</v>
+        <v>0.03256989238135957</v>
       </c>
       <c r="E26">
-        <v>-0.08604855291812682</v>
+        <v>-0.02310017778992534</v>
       </c>
       <c r="F26">
-        <v>-0.04363203101521049</v>
+        <v>-0.001892298457751078</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1630744384166768</v>
+        <v>-0.1384684859600986</v>
       </c>
       <c r="C28">
-        <v>-0.2676708903134266</v>
+        <v>0.01195793509012238</v>
       </c>
       <c r="D28">
-        <v>0.01160824779731981</v>
+        <v>-0.2721355726507061</v>
       </c>
       <c r="E28">
-        <v>-0.03391780310984964</v>
+        <v>0.0654272864550493</v>
       </c>
       <c r="F28">
-        <v>0.001961064252456009</v>
+        <v>0.04263215481483701</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03339603374248399</v>
+        <v>-0.02725930959455381</v>
       </c>
       <c r="C29">
-        <v>0.03390915061371865</v>
+        <v>0.009134925365296179</v>
       </c>
       <c r="D29">
-        <v>0.01593640958195124</v>
+        <v>0.02988430824907633</v>
       </c>
       <c r="E29">
-        <v>-0.05150888785608435</v>
+        <v>-0.008121689426310185</v>
       </c>
       <c r="F29">
-        <v>0.02473330427870478</v>
+        <v>-0.005781311070512235</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09104573332929483</v>
+        <v>-0.06467166560776827</v>
       </c>
       <c r="C30">
-        <v>0.06506005674327309</v>
+        <v>0.00671876925140894</v>
       </c>
       <c r="D30">
-        <v>0.02497147055735451</v>
+        <v>0.07877101261776255</v>
       </c>
       <c r="E30">
-        <v>-0.2577070087564038</v>
+        <v>-0.02189958518397206</v>
       </c>
       <c r="F30">
-        <v>-0.09599654952732786</v>
+        <v>0.1226304513531583</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02805087295482982</v>
+        <v>-0.04887875102946432</v>
       </c>
       <c r="C31">
-        <v>0.05985102455628519</v>
+        <v>0.01517173483493097</v>
       </c>
       <c r="D31">
-        <v>-0.002299777450377736</v>
+        <v>0.02916181393865277</v>
       </c>
       <c r="E31">
-        <v>-0.03991721973737318</v>
+        <v>-0.02623876289937051</v>
       </c>
       <c r="F31">
-        <v>0.02096840862837491</v>
+        <v>-0.002492272180501857</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05474324106261922</v>
+        <v>-0.04934346876082896</v>
       </c>
       <c r="C32">
-        <v>0.01227491829539289</v>
+        <v>0.00060233581268218</v>
       </c>
       <c r="D32">
-        <v>0.05428701895668474</v>
+        <v>0.02981574282378581</v>
       </c>
       <c r="E32">
-        <v>-0.03052889487170865</v>
+        <v>-0.02635925994313352</v>
       </c>
       <c r="F32">
-        <v>0.07021151128923836</v>
+        <v>0.003976684081254294</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09805979111280662</v>
+        <v>-0.09196303455628876</v>
       </c>
       <c r="C33">
-        <v>0.0780573393365825</v>
+        <v>0.01012714034565376</v>
       </c>
       <c r="D33">
-        <v>0.02710796667156368</v>
+        <v>0.09074630299406257</v>
       </c>
       <c r="E33">
-        <v>-0.06552881949267654</v>
+        <v>-0.04345464112097169</v>
       </c>
       <c r="F33">
-        <v>-0.01263350186398007</v>
+        <v>0.0441516385169002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06700863161318035</v>
+        <v>-0.0691801002649169</v>
       </c>
       <c r="C34">
-        <v>0.06119582453529485</v>
+        <v>0.01290196943699411</v>
       </c>
       <c r="D34">
-        <v>0.04076325157497998</v>
+        <v>0.09504999528937183</v>
       </c>
       <c r="E34">
-        <v>-0.09895017839085007</v>
+        <v>-0.02796302181345813</v>
       </c>
       <c r="F34">
-        <v>0.04346929155665351</v>
+        <v>0.05370360141329255</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01805214256085597</v>
+        <v>-0.02444396515176614</v>
       </c>
       <c r="C35">
-        <v>0.01220085385217109</v>
+        <v>0.002705667978283147</v>
       </c>
       <c r="D35">
-        <v>0.0004755167587320161</v>
+        <v>0.009566740347835279</v>
       </c>
       <c r="E35">
-        <v>-0.03800707293278561</v>
+        <v>-0.01084518161338402</v>
       </c>
       <c r="F35">
-        <v>0.00845198450770668</v>
+        <v>0.01219501334971435</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02341058313039187</v>
+        <v>-0.0249906979590697</v>
       </c>
       <c r="C36">
-        <v>0.01781223421543606</v>
+        <v>0.007216501129153747</v>
       </c>
       <c r="D36">
-        <v>-0.01226265110199893</v>
+        <v>0.03831495478844243</v>
       </c>
       <c r="E36">
-        <v>-0.0797841404807486</v>
+        <v>-0.0146708499704458</v>
       </c>
       <c r="F36">
-        <v>0.006268469886942562</v>
+        <v>0.0106224794956306</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0195908022439488</v>
+        <v>-0.002768691272184829</v>
       </c>
       <c r="C38">
-        <v>0.05021969925306882</v>
+        <v>0.0004919835555049656</v>
       </c>
       <c r="D38">
-        <v>-0.02415422117006148</v>
+        <v>0.003025791130930482</v>
       </c>
       <c r="E38">
-        <v>0.09057157220080164</v>
+        <v>-0.003704568335867181</v>
       </c>
       <c r="F38">
-        <v>-0.1076804860136908</v>
+        <v>-0.002931192421435974</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1045629797105299</v>
+        <v>-0.1112802071868303</v>
       </c>
       <c r="C39">
-        <v>0.09294293322845219</v>
+        <v>0.01876054845239916</v>
       </c>
       <c r="D39">
-        <v>0.1334042631404476</v>
+        <v>0.1462937902806487</v>
       </c>
       <c r="E39">
-        <v>-0.1890627127874625</v>
+        <v>-0.05065783317950107</v>
       </c>
       <c r="F39">
-        <v>-0.08456980933170109</v>
+        <v>0.04232715866408614</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02765495894667889</v>
+        <v>-0.03762574800341265</v>
       </c>
       <c r="C40">
-        <v>0.06813990361308814</v>
+        <v>0.007665750813451193</v>
       </c>
       <c r="D40">
-        <v>-0.02859676761787961</v>
+        <v>0.02905682635072656</v>
       </c>
       <c r="E40">
-        <v>-0.01708422147592165</v>
+        <v>-0.001217442134424133</v>
       </c>
       <c r="F40">
-        <v>0.09797911069335923</v>
+        <v>-0.01798384919261433</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03534845062371197</v>
+        <v>-0.0265865517192773</v>
       </c>
       <c r="C41">
-        <v>0.02491265886661219</v>
+        <v>0.00680713445280838</v>
       </c>
       <c r="D41">
-        <v>0.01789174959162151</v>
+        <v>0.0106969188273076</v>
       </c>
       <c r="E41">
-        <v>-0.01169261277358309</v>
+        <v>-0.01098527927395188</v>
       </c>
       <c r="F41">
-        <v>-0.01951207141904668</v>
+        <v>-0.01211513797938154</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04419224511936394</v>
+        <v>-0.04292111406649728</v>
       </c>
       <c r="C43">
-        <v>0.04563880970928411</v>
+        <v>0.007215092871188175</v>
       </c>
       <c r="D43">
-        <v>-0.009319002205033176</v>
+        <v>0.02090782681536357</v>
       </c>
       <c r="E43">
-        <v>-0.0267734878275083</v>
+        <v>-0.02541828368811687</v>
       </c>
       <c r="F43">
-        <v>-0.0468150664683963</v>
+        <v>-0.01090497325489068</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0977338796852897</v>
+        <v>-0.07361837928806468</v>
       </c>
       <c r="C44">
-        <v>0.0970921086513873</v>
+        <v>0.0230183733045465</v>
       </c>
       <c r="D44">
-        <v>-0.08229840324938734</v>
+        <v>0.09751473835157587</v>
       </c>
       <c r="E44">
-        <v>-0.1051281377757006</v>
+        <v>-0.06546756989108671</v>
       </c>
       <c r="F44">
-        <v>0.08061725127877362</v>
+        <v>0.1842861954133507</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03869667121897743</v>
+        <v>-0.0235831130131417</v>
       </c>
       <c r="C46">
-        <v>0.03685003441415868</v>
+        <v>0.004344702221458508</v>
       </c>
       <c r="D46">
-        <v>-0.04160881142060545</v>
+        <v>0.0113500169527278</v>
       </c>
       <c r="E46">
-        <v>-0.03565982796994942</v>
+        <v>-0.02093295176726587</v>
       </c>
       <c r="F46">
-        <v>0.04240590567156513</v>
+        <v>-0.001039438907821151</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04867181204569238</v>
+        <v>-0.05320442627067731</v>
       </c>
       <c r="C47">
-        <v>0.05073177138504676</v>
+        <v>0.003515959033171507</v>
       </c>
       <c r="D47">
-        <v>-0.001063206793581201</v>
+        <v>0.01328957362495769</v>
       </c>
       <c r="E47">
-        <v>-0.01087977130008511</v>
+        <v>-0.02317825772886345</v>
       </c>
       <c r="F47">
-        <v>-0.002945293277423626</v>
+        <v>-0.04747594563370601</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04377039345400065</v>
+        <v>-0.04825804130234735</v>
       </c>
       <c r="C48">
-        <v>0.01944291762383146</v>
+        <v>0.003309066955835611</v>
       </c>
       <c r="D48">
-        <v>0.0124604833265705</v>
+        <v>0.04513433745016486</v>
       </c>
       <c r="E48">
-        <v>-0.07604866487254643</v>
+        <v>0.008733203686202307</v>
       </c>
       <c r="F48">
-        <v>0.06218968843725611</v>
+        <v>0.01744628759284688</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2277931764087972</v>
+        <v>-0.2049418651112066</v>
       </c>
       <c r="C49">
-        <v>0.03797399432705991</v>
+        <v>0.01680057119992301</v>
       </c>
       <c r="D49">
-        <v>0.02662361305713894</v>
+        <v>-0.009004744690720353</v>
       </c>
       <c r="E49">
-        <v>0.3035311701646031</v>
+        <v>-0.04186249090274139</v>
       </c>
       <c r="F49">
-        <v>-0.06623911619039936</v>
+        <v>0.03412084236753466</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04073355385517286</v>
+        <v>-0.04863900294782275</v>
       </c>
       <c r="C50">
-        <v>0.04633431334821955</v>
+        <v>0.01122245922968544</v>
       </c>
       <c r="D50">
-        <v>0.01545789535124798</v>
+        <v>0.02657497753439892</v>
       </c>
       <c r="E50">
-        <v>-0.07059320697586068</v>
+        <v>-0.02845355517119581</v>
       </c>
       <c r="F50">
-        <v>-0.01892841375396877</v>
+        <v>0.006652681979996945</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02531982065594526</v>
+        <v>-0.003239391011722814</v>
       </c>
       <c r="C51">
-        <v>-0.000173412473279931</v>
+        <v>0.0007762885430335224</v>
       </c>
       <c r="D51">
-        <v>-0.001460136902014697</v>
+        <v>-0.001780870707831561</v>
       </c>
       <c r="E51">
-        <v>0.05623622516291891</v>
+        <v>-0.001146883732305444</v>
       </c>
       <c r="F51">
-        <v>0.004834353319229711</v>
+        <v>0.004446448816691683</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.04821804116176924</v>
+        <v>-0.14226785298111</v>
       </c>
       <c r="C52">
-        <v>0.01928351135545619</v>
+        <v>0.01274782720337122</v>
       </c>
       <c r="D52">
-        <v>0.02993937460306909</v>
+        <v>0.04896688543140789</v>
       </c>
       <c r="E52">
-        <v>-0.02967100671799425</v>
+        <v>-0.01740806834380395</v>
       </c>
       <c r="F52">
-        <v>-0.03633288377571552</v>
+        <v>0.03252963334435009</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1511408543502692</v>
+        <v>-0.1727456243824585</v>
       </c>
       <c r="C53">
-        <v>0.06233694181382331</v>
+        <v>0.01560791067794483</v>
       </c>
       <c r="D53">
-        <v>-0.01281501766354242</v>
+        <v>0.01636883157274132</v>
       </c>
       <c r="E53">
-        <v>0.05491469064069711</v>
+        <v>-0.0376523927637192</v>
       </c>
       <c r="F53">
-        <v>-0.1085545329136129</v>
+        <v>0.06009431505091174</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05558053111305485</v>
+        <v>-0.02329786088036746</v>
       </c>
       <c r="C54">
-        <v>0.04461016846857974</v>
+        <v>0.01289101627631669</v>
       </c>
       <c r="D54">
-        <v>-0.001147381199875809</v>
+        <v>0.03157377148272808</v>
       </c>
       <c r="E54">
-        <v>-0.1163913408848837</v>
+        <v>-0.01270280349320079</v>
       </c>
       <c r="F54">
-        <v>0.07464156622296626</v>
+        <v>-0.001366803339915793</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08057467368919094</v>
+        <v>-0.1142905515584368</v>
       </c>
       <c r="C55">
-        <v>0.05532276861364056</v>
+        <v>0.01446802409750798</v>
       </c>
       <c r="D55">
-        <v>0.03728141075262743</v>
+        <v>0.01444058083686939</v>
       </c>
       <c r="E55">
-        <v>0.0159897313914813</v>
+        <v>-0.03046893340893661</v>
       </c>
       <c r="F55">
-        <v>-0.03289188791552694</v>
+        <v>0.04657232405754754</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1426136830395684</v>
+        <v>-0.1774947026567152</v>
       </c>
       <c r="C56">
-        <v>0.102122383402384</v>
+        <v>0.01314128472398306</v>
       </c>
       <c r="D56">
-        <v>0.02144553939122669</v>
+        <v>0.01010698670890617</v>
       </c>
       <c r="E56">
-        <v>0.03454771356385042</v>
+        <v>-0.04326672822095998</v>
       </c>
       <c r="F56">
-        <v>-0.06942885039995664</v>
+        <v>0.03057887039763913</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04415621257771998</v>
+        <v>-0.04720701367133782</v>
       </c>
       <c r="C58">
-        <v>0.02541039436470743</v>
+        <v>0.002946178407300259</v>
       </c>
       <c r="D58">
-        <v>-0.03717031690601991</v>
+        <v>0.06381768955373922</v>
       </c>
       <c r="E58">
-        <v>-0.0464465031456578</v>
+        <v>-0.01618666146242041</v>
       </c>
       <c r="F58">
-        <v>0.009950051449709766</v>
+        <v>-0.04461861599122991</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2204419571964286</v>
+        <v>-0.1695089870401076</v>
       </c>
       <c r="C59">
-        <v>-0.2278681026295138</v>
+        <v>0.01374535922188097</v>
       </c>
       <c r="D59">
-        <v>0.04928612803823455</v>
+        <v>-0.2325651014907241</v>
       </c>
       <c r="E59">
-        <v>0.01618211040080115</v>
+        <v>0.0471351233919569</v>
       </c>
       <c r="F59">
-        <v>0.04150591752489623</v>
+        <v>-0.0305706637493032</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2281476977721751</v>
+        <v>-0.2396094172691824</v>
       </c>
       <c r="C60">
-        <v>0.1365936666656407</v>
+        <v>-0.00439604596217848</v>
       </c>
       <c r="D60">
-        <v>0.07111175031876971</v>
+        <v>0.05016355781109603</v>
       </c>
       <c r="E60">
-        <v>0.137549799615825</v>
+        <v>-0.01162277013494662</v>
       </c>
       <c r="F60">
-        <v>-0.006079144112381701</v>
+        <v>-0.04322763385279042</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1078572110531021</v>
+        <v>-0.08606211223804031</v>
       </c>
       <c r="C61">
-        <v>0.08147321404311351</v>
+        <v>0.01460796968191203</v>
       </c>
       <c r="D61">
-        <v>0.07653146129040145</v>
+        <v>0.1080350941748879</v>
       </c>
       <c r="E61">
-        <v>-0.168706669661761</v>
+        <v>-0.03361069084863368</v>
       </c>
       <c r="F61">
-        <v>-0.01266788157621865</v>
+        <v>0.02493723799317948</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1319178053599379</v>
+        <v>-0.1690949913046656</v>
       </c>
       <c r="C62">
-        <v>0.07225854646569402</v>
+        <v>0.01698945645466485</v>
       </c>
       <c r="D62">
-        <v>-0.002100037184316008</v>
+        <v>0.01304935774656423</v>
       </c>
       <c r="E62">
-        <v>0.06654259029773854</v>
+        <v>-0.03917070358981837</v>
       </c>
       <c r="F62">
-        <v>-0.06905067958854762</v>
+        <v>0.01157565050762883</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05079912009742365</v>
+        <v>-0.04268235105872972</v>
       </c>
       <c r="C63">
-        <v>0.02594059208272257</v>
+        <v>0.004059279648974121</v>
       </c>
       <c r="D63">
-        <v>0.01006618257994621</v>
+        <v>0.0472943030266218</v>
       </c>
       <c r="E63">
-        <v>-0.08564582955312317</v>
+        <v>-0.01551095051684013</v>
       </c>
       <c r="F63">
-        <v>0.001372231334283659</v>
+        <v>0.01155943412453392</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09422710789420377</v>
+        <v>-0.1117699413509321</v>
       </c>
       <c r="C64">
-        <v>0.05549089229323403</v>
+        <v>0.01177202773260849</v>
       </c>
       <c r="D64">
-        <v>-0.00105280995845347</v>
+        <v>0.0403089819759381</v>
       </c>
       <c r="E64">
-        <v>-0.06805630938941973</v>
+        <v>-0.01952998325851677</v>
       </c>
       <c r="F64">
-        <v>-0.01171100800392963</v>
+        <v>0.01659236145564797</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1158378841531669</v>
+        <v>-0.1436729974762996</v>
       </c>
       <c r="C65">
-        <v>0.03578160940335073</v>
+        <v>0.03088970647436815</v>
       </c>
       <c r="D65">
-        <v>0.02094178085544919</v>
+        <v>-0.04623663112648271</v>
       </c>
       <c r="E65">
-        <v>-0.05693334359640063</v>
+        <v>-0.00321492198551925</v>
       </c>
       <c r="F65">
-        <v>-0.05619311440636885</v>
+        <v>0.04289635845002463</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1203167906230323</v>
+        <v>-0.1333895252295649</v>
       </c>
       <c r="C66">
-        <v>0.123341172369934</v>
+        <v>0.01634062373012451</v>
       </c>
       <c r="D66">
-        <v>0.1193859895062147</v>
+        <v>0.1336931643792443</v>
       </c>
       <c r="E66">
-        <v>-0.1604779681489682</v>
+        <v>-0.05946544755138424</v>
       </c>
       <c r="F66">
-        <v>-0.1003289948673449</v>
+        <v>0.04644956205343188</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07040051832029898</v>
+        <v>-0.06508289397732965</v>
       </c>
       <c r="C67">
-        <v>0.0621739436225743</v>
+        <v>0.003985600796228552</v>
       </c>
       <c r="D67">
-        <v>-0.03403814526543329</v>
+        <v>0.0553616332530577</v>
       </c>
       <c r="E67">
-        <v>0.1009588629770475</v>
+        <v>-0.02113181991012088</v>
       </c>
       <c r="F67">
-        <v>-0.1290710990640337</v>
+        <v>-0.04340205623878136</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1369523647200045</v>
+        <v>-0.1115500227189608</v>
       </c>
       <c r="C68">
-        <v>-0.2618095214543554</v>
+        <v>0.02294114243322818</v>
       </c>
       <c r="D68">
-        <v>0.02266964994514697</v>
+        <v>-0.2696561962321823</v>
       </c>
       <c r="E68">
-        <v>-0.05140219769587807</v>
+        <v>0.08477467821409151</v>
       </c>
       <c r="F68">
-        <v>0.001474894404351343</v>
+        <v>0.04766384757341403</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04803048223939013</v>
+        <v>-0.04062544814364894</v>
       </c>
       <c r="C69">
-        <v>0.02034304635744075</v>
+        <v>0.001262584686799921</v>
       </c>
       <c r="D69">
-        <v>-0.003520140412912309</v>
+        <v>0.009604410750537124</v>
       </c>
       <c r="E69">
-        <v>-0.01903429748342488</v>
+        <v>-0.02637599469688236</v>
       </c>
       <c r="F69">
-        <v>-0.0328059201873513</v>
+        <v>-0.01708965134859872</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05454596367447403</v>
+        <v>-0.06474273333308155</v>
       </c>
       <c r="C70">
-        <v>0.07142331138889434</v>
+        <v>-0.02707730340993062</v>
       </c>
       <c r="D70">
-        <v>0.0267208096931527</v>
+        <v>0.02628661379910133</v>
       </c>
       <c r="E70">
-        <v>-0.03392410472174527</v>
+        <v>0.04535184024803181</v>
       </c>
       <c r="F70">
-        <v>-0.002650810587620762</v>
+        <v>-0.3454015815876414</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1551214085183532</v>
+        <v>-0.1305302006430218</v>
       </c>
       <c r="C71">
-        <v>-0.2756408685657181</v>
+        <v>0.02694545414963569</v>
       </c>
       <c r="D71">
-        <v>0.01824328579551449</v>
+        <v>-0.2859965471624555</v>
       </c>
       <c r="E71">
-        <v>-0.06722700790191576</v>
+        <v>0.09222450780832275</v>
       </c>
       <c r="F71">
-        <v>-0.02222663837066675</v>
+        <v>0.04992828198355265</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1332912986050461</v>
+        <v>-0.1380641240729568</v>
       </c>
       <c r="C72">
-        <v>0.01844293413658538</v>
+        <v>0.02389727560910226</v>
       </c>
       <c r="D72">
-        <v>0.005030458529693231</v>
+        <v>0.005500543555597421</v>
       </c>
       <c r="E72">
-        <v>-0.03515371383164188</v>
+        <v>-0.04220278268256741</v>
       </c>
       <c r="F72">
-        <v>-0.05534041587213915</v>
+        <v>0.02457588439433304</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2168488180169321</v>
+        <v>-0.2075783020841625</v>
       </c>
       <c r="C73">
-        <v>0.1015827989149511</v>
+        <v>0.01114722497599254</v>
       </c>
       <c r="D73">
-        <v>0.1180391703170258</v>
+        <v>0.01910363343099111</v>
       </c>
       <c r="E73">
-        <v>0.4807322348716208</v>
+        <v>-0.06914334636260239</v>
       </c>
       <c r="F73">
-        <v>-0.1889921647160555</v>
+        <v>0.02486007620760825</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09676921232304175</v>
+        <v>-0.09374215169257517</v>
       </c>
       <c r="C74">
-        <v>0.08715274191039243</v>
+        <v>0.01179486977109564</v>
       </c>
       <c r="D74">
-        <v>0.006205252219777389</v>
+        <v>0.02517958395737541</v>
       </c>
       <c r="E74">
-        <v>0.02348408958207957</v>
+        <v>-0.0503556710495502</v>
       </c>
       <c r="F74">
-        <v>-0.1159144957223073</v>
+        <v>0.04062238146987798</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09427196788277764</v>
+        <v>-0.1302089938084841</v>
       </c>
       <c r="C75">
-        <v>0.07012743964051836</v>
+        <v>0.02620722952914925</v>
       </c>
       <c r="D75">
-        <v>0.004370400186296514</v>
+        <v>0.03476249757742044</v>
       </c>
       <c r="E75">
-        <v>0.008014664177798742</v>
+        <v>-0.06085917586922495</v>
       </c>
       <c r="F75">
-        <v>-0.01060099482834947</v>
+        <v>0.009450724705558616</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0562173085385923</v>
+        <v>-0.00753651639406071</v>
       </c>
       <c r="C76">
-        <v>0.06895911362948209</v>
+        <v>0.001672262925479985</v>
       </c>
       <c r="D76">
-        <v>-0.005405055620322553</v>
+        <v>0.003036410325386111</v>
       </c>
       <c r="E76">
-        <v>0.05727743513642874</v>
+        <v>-0.007609354738502986</v>
       </c>
       <c r="F76">
-        <v>-0.02522184819447315</v>
+        <v>0.00410509225257751</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06530039257117182</v>
+        <v>-0.08045733136465949</v>
       </c>
       <c r="C77">
-        <v>0.02856456213615339</v>
+        <v>0.01063264180293993</v>
       </c>
       <c r="D77">
-        <v>0.03676457787897482</v>
+        <v>0.1084915704544136</v>
       </c>
       <c r="E77">
-        <v>-0.1298539073819934</v>
+        <v>-0.03291264760210454</v>
       </c>
       <c r="F77">
-        <v>0.07674778327524759</v>
+        <v>0.0339849030552668</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1585464239417569</v>
+        <v>-0.1096539348253407</v>
       </c>
       <c r="C78">
-        <v>0.1641303914410917</v>
+        <v>0.04315842949469183</v>
       </c>
       <c r="D78">
-        <v>-0.1647973830983067</v>
+        <v>0.1175599372353507</v>
       </c>
       <c r="E78">
-        <v>0.05549908973963472</v>
+        <v>-0.08851081860764919</v>
       </c>
       <c r="F78">
-        <v>0.6292681203370836</v>
+        <v>0.07448747377910599</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1304908968995012</v>
+        <v>-0.1631201521015286</v>
       </c>
       <c r="C79">
-        <v>0.08566767611853575</v>
+        <v>0.02013241581462222</v>
       </c>
       <c r="D79">
-        <v>-0.007801718039331271</v>
+        <v>0.02027177419262679</v>
       </c>
       <c r="E79">
-        <v>0.01006912985158744</v>
+        <v>-0.04869193997025033</v>
       </c>
       <c r="F79">
-        <v>-0.04922239419261198</v>
+        <v>0.005772964463943988</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06861577837411871</v>
+        <v>-0.08067465351974351</v>
       </c>
       <c r="C80">
-        <v>0.05124839390862353</v>
+        <v>-0.0007504519382610382</v>
       </c>
       <c r="D80">
-        <v>0.08234659048196316</v>
+        <v>0.05494582570007886</v>
       </c>
       <c r="E80">
-        <v>-0.04793179075600758</v>
+        <v>-0.02959649570713801</v>
       </c>
       <c r="F80">
-        <v>-0.02470345065947964</v>
+        <v>-0.0102456777989488</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1225826629496991</v>
+        <v>-0.1229743665659397</v>
       </c>
       <c r="C81">
-        <v>0.07716691828362533</v>
+        <v>0.03006268075940808</v>
       </c>
       <c r="D81">
-        <v>-0.01041267862274521</v>
+        <v>0.02015669052164709</v>
       </c>
       <c r="E81">
-        <v>-0.0527875136444557</v>
+        <v>-0.06132638893018284</v>
       </c>
       <c r="F81">
-        <v>-0.01145374784136687</v>
+        <v>-0.002428057384927648</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1257637250146213</v>
+        <v>-0.1623862576636088</v>
       </c>
       <c r="C82">
-        <v>0.06604519393741608</v>
+        <v>0.02058756022930965</v>
       </c>
       <c r="D82">
-        <v>0.01039400357949055</v>
+        <v>0.01721569031213237</v>
       </c>
       <c r="E82">
-        <v>-0.009933538768619602</v>
+        <v>-0.03670263799963155</v>
       </c>
       <c r="F82">
-        <v>-0.1017662667969433</v>
+        <v>0.05533255241124829</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07571320211098122</v>
+        <v>-0.06608896676870199</v>
       </c>
       <c r="C83">
-        <v>0.09153829912365717</v>
+        <v>0.00406596003154195</v>
       </c>
       <c r="D83">
-        <v>0.02652269711210637</v>
+        <v>0.04949396818184111</v>
       </c>
       <c r="E83">
-        <v>-0.02331088457536324</v>
+        <v>-0.003259109536527064</v>
       </c>
       <c r="F83">
-        <v>-0.08866970375497921</v>
+        <v>-0.0382850549812775</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05931912551326147</v>
+        <v>-0.06109664759266523</v>
       </c>
       <c r="C84">
-        <v>-0.06783442668957847</v>
+        <v>0.01143888146730867</v>
       </c>
       <c r="D84">
-        <v>0.04023360973712148</v>
+        <v>0.06010360106623987</v>
       </c>
       <c r="E84">
-        <v>-0.03046172216768266</v>
+        <v>0.004091269824043162</v>
       </c>
       <c r="F84">
-        <v>0.2074478618587725</v>
+        <v>0.01444014883269768</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1175079268916394</v>
+        <v>-0.1380796693049162</v>
       </c>
       <c r="C85">
-        <v>0.05709003294164432</v>
+        <v>0.02547008038230974</v>
       </c>
       <c r="D85">
-        <v>0.004489605171669011</v>
+        <v>0.01636778809854991</v>
       </c>
       <c r="E85">
-        <v>0.01592436476590805</v>
+        <v>-0.04063696544800574</v>
       </c>
       <c r="F85">
-        <v>-0.06763994007227937</v>
+        <v>0.04180128164555871</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08678434457845922</v>
+        <v>-0.1002125538680679</v>
       </c>
       <c r="C86">
-        <v>0.0230167220040542</v>
+        <v>-0.007267965801538131</v>
       </c>
       <c r="D86">
-        <v>-0.02964668821744578</v>
+        <v>0.02077408312228593</v>
       </c>
       <c r="E86">
-        <v>0.2355293594655836</v>
+        <v>-0.1291581289419578</v>
       </c>
       <c r="F86">
-        <v>0.4754406915841688</v>
+        <v>-0.8265334179069241</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1153530879563738</v>
+        <v>-0.1003153873537382</v>
       </c>
       <c r="C87">
-        <v>0.08048584743168478</v>
+        <v>0.02562328207153256</v>
       </c>
       <c r="D87">
-        <v>-0.01757667061688205</v>
+        <v>0.07272789823265079</v>
       </c>
       <c r="E87">
-        <v>-0.03587454447989189</v>
+        <v>0.05286314211723753</v>
       </c>
       <c r="F87">
-        <v>0.048303600325762</v>
+        <v>0.09236184893034344</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05783008921311555</v>
+        <v>-0.06215655248061612</v>
       </c>
       <c r="C88">
-        <v>0.05849192196104051</v>
+        <v>0.003268572414313916</v>
       </c>
       <c r="D88">
-        <v>0.03880269265374662</v>
+        <v>0.05354948688978237</v>
       </c>
       <c r="E88">
-        <v>-0.03345657500523178</v>
+        <v>-0.02562743320393032</v>
       </c>
       <c r="F88">
-        <v>-0.04104612078400065</v>
+        <v>0.007322430536967571</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.229855506668066</v>
+        <v>-0.1317421861680624</v>
       </c>
       <c r="C89">
-        <v>-0.3644533589817064</v>
+        <v>0.005710507238628261</v>
       </c>
       <c r="D89">
-        <v>-0.05267934065878221</v>
+        <v>-0.2677890033133515</v>
       </c>
       <c r="E89">
-        <v>0.02923824712366615</v>
+        <v>0.09008744174608747</v>
       </c>
       <c r="F89">
-        <v>0.05827851064275338</v>
+        <v>0.03092096042785308</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1652126101392314</v>
+        <v>-0.1426679587436588</v>
       </c>
       <c r="C90">
-        <v>-0.2570053821871892</v>
+        <v>0.02263604944027419</v>
       </c>
       <c r="D90">
-        <v>0.01457213178655874</v>
+        <v>-0.2729388670496333</v>
       </c>
       <c r="E90">
-        <v>-0.02248645959365923</v>
+        <v>0.1047829427097795</v>
       </c>
       <c r="F90">
-        <v>-0.02646887221919402</v>
+        <v>0.03512372870581323</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07665341926296852</v>
+        <v>-0.1169499870083699</v>
       </c>
       <c r="C91">
-        <v>0.07104453645390202</v>
+        <v>0.01623440793689193</v>
       </c>
       <c r="D91">
-        <v>0.003942479998591973</v>
+        <v>-0.003123249886802634</v>
       </c>
       <c r="E91">
-        <v>0.003800138742307108</v>
+        <v>-0.05954748277384431</v>
       </c>
       <c r="F91">
-        <v>-0.0001472615633442977</v>
+        <v>-0.02994328230868067</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1881288519663597</v>
+        <v>-0.1449504141292099</v>
       </c>
       <c r="C92">
-        <v>-0.2900191019287449</v>
+        <v>0.01430907222798985</v>
       </c>
       <c r="D92">
-        <v>-0.02345451684351353</v>
+        <v>-0.3076561490632735</v>
       </c>
       <c r="E92">
-        <v>-0.07739192820368974</v>
+        <v>0.1016877764701609</v>
       </c>
       <c r="F92">
-        <v>0.03339111443969788</v>
+        <v>0.02763203376076773</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1763586703806338</v>
+        <v>-0.1467392738614247</v>
       </c>
       <c r="C93">
-        <v>-0.2981566120546846</v>
+        <v>0.01909550240455404</v>
       </c>
       <c r="D93">
-        <v>0.04041729771155173</v>
+        <v>-0.2759715354807251</v>
       </c>
       <c r="E93">
-        <v>-0.02860299416632336</v>
+        <v>0.0708185404504931</v>
       </c>
       <c r="F93">
-        <v>0.006223402849040156</v>
+        <v>0.02535866040701373</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1210290968279994</v>
+        <v>-0.1336713972197302</v>
       </c>
       <c r="C94">
-        <v>0.08638115179297411</v>
+        <v>0.02352477078932309</v>
       </c>
       <c r="D94">
-        <v>-0.01092018145871621</v>
+        <v>0.04839415304688399</v>
       </c>
       <c r="E94">
-        <v>0.02132886367982815</v>
+        <v>-0.0621127319005479</v>
       </c>
       <c r="F94">
-        <v>-0.05173157164872245</v>
+        <v>0.02724140233975153</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1214491000764454</v>
+        <v>-0.1268126071913981</v>
       </c>
       <c r="C95">
-        <v>0.08305940622455714</v>
+        <v>0.005742574092663273</v>
       </c>
       <c r="D95">
-        <v>-0.01568795443889933</v>
+        <v>0.0910601273005972</v>
       </c>
       <c r="E95">
-        <v>-0.02126051717119638</v>
+        <v>-0.0424347289030895</v>
       </c>
       <c r="F95">
-        <v>0.1658085251263394</v>
+        <v>-0.01102670518367863</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0007200517129794248</v>
+        <v>-0.09524367959930907</v>
       </c>
       <c r="C96">
-        <v>-0.0003138355656442703</v>
+        <v>-0.9893678416575067</v>
       </c>
       <c r="D96">
-        <v>0.001526939217797476</v>
+        <v>-0.01981501472665413</v>
       </c>
       <c r="E96">
-        <v>-0.0001936933398412962</v>
+        <v>-0.05914720338075593</v>
       </c>
       <c r="F96">
-        <v>-0.001939505452392343</v>
+        <v>0.05025255777717882</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1320058130509926</v>
+        <v>-0.1883173071487754</v>
       </c>
       <c r="C97">
-        <v>-0.008017559869129814</v>
+        <v>-0.01198399532913846</v>
       </c>
       <c r="D97">
-        <v>-0.03880810087702793</v>
+        <v>-0.01338933634299085</v>
       </c>
       <c r="E97">
-        <v>-0.2631293967374261</v>
+        <v>-0.01677060573943301</v>
       </c>
       <c r="F97">
-        <v>-0.1423283662680961</v>
+        <v>-0.1788150835524128</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2366950003630341</v>
+        <v>-0.2064526624184679</v>
       </c>
       <c r="C98">
-        <v>0.1037127480656833</v>
+        <v>0.006799762984143104</v>
       </c>
       <c r="D98">
-        <v>-0.09049089867263414</v>
+        <v>0.01618576000556128</v>
       </c>
       <c r="E98">
-        <v>0.2781364579982372</v>
+        <v>0.09000155145075631</v>
       </c>
       <c r="F98">
-        <v>-0.05683772753996613</v>
+        <v>-0.1372541150044805</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06776868155438372</v>
+        <v>-0.05782196846331978</v>
       </c>
       <c r="C99">
-        <v>0.0614720446590387</v>
+        <v>-0.003095882537579747</v>
       </c>
       <c r="D99">
-        <v>-0.007941787267905041</v>
+        <v>0.03465710077214165</v>
       </c>
       <c r="E99">
-        <v>0.03984987895363134</v>
+        <v>-0.02709819226432461</v>
       </c>
       <c r="F99">
-        <v>-0.008973225160167074</v>
+        <v>0.003500864377570693</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1246053707289236</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04817715185724018</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3231665515419871</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9055331010178345</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05245639571094669</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03284115314591724</v>
+        <v>-0.02719283496983889</v>
       </c>
       <c r="C101">
-        <v>0.03384733111038556</v>
+        <v>0.009150046286419283</v>
       </c>
       <c r="D101">
-        <v>0.01672910633510487</v>
+        <v>0.0296248410850826</v>
       </c>
       <c r="E101">
-        <v>-0.04867218649794135</v>
+        <v>-0.0080510897666924</v>
       </c>
       <c r="F101">
-        <v>0.02525592016850123</v>
+        <v>-0.008260817855074258</v>
       </c>
     </row>
     <row r="102" spans="1:6">
